--- a/data/trans_bre/P19C03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 11,05</t>
+          <t>-4,1; 10,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,53; -1,9</t>
+          <t>-16,6; -1,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 2,67</t>
+          <t>-9,11; 3,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 3,42</t>
+          <t>-6,58; 3,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 43,77</t>
+          <t>-13,13; 42,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,22; -5,38</t>
+          <t>-41,94; -3,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-37,05; 12,4</t>
+          <t>-32,79; 18,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 21,97</t>
+          <t>-29,6; 24,74</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 11,49</t>
+          <t>-4,23; 11,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 10,2</t>
+          <t>-4,4; 9,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 9,7</t>
+          <t>-4,93; 9,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 5,19</t>
+          <t>-3,5; 5,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 40,31</t>
+          <t>-11,6; 38,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 42,43</t>
+          <t>-14,36; 39,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 43,77</t>
+          <t>-17,27; 42,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 39,78</t>
+          <t>-19,49; 45,8</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,69; 5,73</t>
+          <t>-12,08; 5,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 8,44</t>
+          <t>-6,03; 7,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 5,43</t>
+          <t>-12,19; 5,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 15,52</t>
+          <t>-6,58; 15,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 18,4</t>
+          <t>-32,86; 15,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 31,51</t>
+          <t>-18,8; 29,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,01; 19,91</t>
+          <t>-37,84; 19,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 261,79</t>
+          <t>-31,02; 301,65</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 9,32</t>
+          <t>-0,22; 10,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 8,37</t>
+          <t>-1,38; 8,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 8,27</t>
+          <t>-0,69; 8,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 1,09</t>
+          <t>-13,56; 1,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 31,58</t>
+          <t>-0,58; 34,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 31,43</t>
+          <t>-4,6; 31,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 29,29</t>
+          <t>-2,26; 31,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,32; 4,98</t>
+          <t>-57,99; 4,98</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 8,28</t>
+          <t>-6,71; 7,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 5,72</t>
+          <t>-6,56; 5,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 7,7</t>
+          <t>-4,34; 6,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 13,38</t>
+          <t>-4,09; 13,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 29,56</t>
+          <t>-17,64; 27,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 23,68</t>
+          <t>-20,42; 20,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-13,87; 32,05</t>
+          <t>-14,49; 28,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 83,55</t>
+          <t>-21,18; 81,62</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 3,95</t>
+          <t>-11,02; 2,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 0,93</t>
+          <t>-12,71; 1,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -0,2</t>
+          <t>-12,96; -0,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 6,2</t>
+          <t>-14,32; 5,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,65; 16,1</t>
+          <t>-29,95; 10,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,26; 3,76</t>
+          <t>-32,84; 3,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-43,1; -0,63</t>
+          <t>-42,04; -1,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,88; 65,48</t>
+          <t>-50,23; 60,0</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 2,68</t>
+          <t>-2,57; 2,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 1,28</t>
+          <t>-3,5; 1,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 0,79</t>
+          <t>-3,84; 1,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 3,95</t>
+          <t>-4,35; 3,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 8,94</t>
+          <t>-7,69; 9,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 4,4</t>
+          <t>-11,16; 4,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 2,72</t>
+          <t>-13,38; 4,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 25,01</t>
+          <t>-22,67; 23,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C03-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
